--- a/data/trans_orig/cron_index-Clase-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Clase-trans_orig.xlsx
@@ -724,57 +724,57 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,55</t>
+          <t>0,37; 0,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,58</t>
+          <t>0,41; 0,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,66</t>
+          <t>0,45; 0,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,99</t>
+          <t>0,78; 0,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,51</t>
+          <t>0,34; 0,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,53</t>
+          <t>0,32; 0,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,61</t>
+          <t>0,4; 0,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,82</t>
+          <t>0,64; 0,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,5</t>
+          <t>0,37; 0,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,53</t>
+          <t>0,4; 0,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,6</t>
+          <t>0,45; 0,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,54</t>
+          <t>0,37; 0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,59</t>
+          <t>0,39; 0,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,67</t>
+          <t>0,46; 0,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,01</t>
+          <t>0,78; 1,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,51</t>
+          <t>0,31; 0,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,55</t>
+          <t>0,35; 0,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,51</t>
+          <t>0,33; 0,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,78</t>
+          <t>0,59; 0,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,48</t>
+          <t>0,35; 0,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,53</t>
+          <t>0,38; 0,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,56</t>
+          <t>0,42; 0,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,88</t>
+          <t>0,73; 0,87</t>
         </is>
       </c>
     </row>
@@ -1019,27 +1019,27 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,11</t>
+          <t>0,25; 1,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,85</t>
+          <t>0,49; 0,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,93</t>
+          <t>0,63; 0,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,14</t>
+          <t>0,69; 1,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,4</t>
+          <t>1,02; 1,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,9</t>
+          <t>0,72; 0,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,82</t>
+          <t>0,64; 0,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,15</t>
+          <t>0,35; 1,16</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,7</t>
+          <t>0,58; 0,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,8</t>
+          <t>0,64; 0,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,08</t>
+          <t>0,9; 1,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,6</t>
+          <t>0,47; 0,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,58</t>
+          <t>0,43; 0,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,08</t>
+          <t>0,77; 2,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,73</t>
+          <t>0,88; 1,66</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,64</t>
+          <t>0,42; 0,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,73</t>
+          <t>0,54; 0,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,83</t>
+          <t>0,63; 0,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,18</t>
+          <t>0,9; 1,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,06</t>
+          <t>0,86; 1,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,97</t>
+          <t>0,79; 0,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,51</t>
+          <t>1,19; 1,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,72</t>
+          <t>0,57; 0,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,9</t>
+          <t>0,75; 0,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,87</t>
+          <t>0,75; 0,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,36</t>
+          <t>1,11; 1,36</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,17</t>
+          <t>0,08; 0,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,31</t>
+          <t>0,14; 0,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,27</t>
+          <t>0,14; 0,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,61</t>
+          <t>0,21; 0,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,26</t>
+          <t>1,07; 1,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,14</t>
+          <t>0,97; 1,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,37</t>
+          <t>1,15; 1,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,14</t>
+          <t>0,94; 1,13</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,67</t>
+          <t>0,58; 0,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,65</t>
+          <t>0,58; 0,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,94</t>
+          <t>0,66; 0,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,8</t>
+          <t>0,71; 0,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,56</t>
+          <t>1,02; 1,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,23</t>
+          <t>0,91; 1,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/cron_index-Clase-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
